--- a/medicine/Pharmacie/Facteur_de_croissance_hématopoïétique/Facteur_de_croissance_hématopoïétique.xlsx
+++ b/medicine/Pharmacie/Facteur_de_croissance_hématopoïétique/Facteur_de_croissance_hématopoïétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_de_croissance_h%C3%A9matopo%C3%AF%C3%A9tique</t>
+          <t>Facteur_de_croissance_hématopoïétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Facteurs de croissance hématopoïétiques sont des glycoprotéines sécrétées par les cellules de la moelle indispensables pour le développement de cellules hématopoïétiques. 
 Leur fonction est d'assurer la prolifération, la maturation de la cellule.
